--- a/medicine/Psychotrope/Vin_de_garage/Vin_de_garage.xlsx
+++ b/medicine/Psychotrope/Vin_de_garage/Vin_de_garage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vin de garage est un vin produit en petite quantité sur des petites surfaces. L'appellation est apparue dans le vignoble de Bordeaux au début des années 1990.
 </t>
@@ -511,11 +523,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est dans le Bordelais qu'est apparue cette expression appliquée à des vins de château qui se caractérisaient par de petits volumes et une production volontairement limitée. Autre caractéristique, ces micro-cuvées étaient extrêmement tanniques pour avoir été vinifiées puis élevées en fût de chêne neuf. Réservé à une clientèle bien ciblée, le prix de ce type de vin était très élevé[1]. 
-Les deux promoteurs de ce type de vin furent Jacques Thienpont, propriétaire du château Le Pin à Pomerol, dès 1979, suivi, au tout début des années 1990, par Jean-Luc Thunevin, propriétaire du château de Valandraud (en), à Saint-Émilion[1]. 
-Ces vins extrêmement tanniques furent fort bien notés par Robert M. Parker, Jr., ce qui assura leur succès. Les plus connus des garagistes, outre les deux pré-cités, sont La Mondotte, Péby-Faugère, Gracia, Rol-Valentin[1] et Le Dôme (en)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans le Bordelais qu'est apparue cette expression appliquée à des vins de château qui se caractérisaient par de petits volumes et une production volontairement limitée. Autre caractéristique, ces micro-cuvées étaient extrêmement tanniques pour avoir été vinifiées puis élevées en fût de chêne neuf. Réservé à une clientèle bien ciblée, le prix de ce type de vin était très élevé. 
+Les deux promoteurs de ce type de vin furent Jacques Thienpont, propriétaire du château Le Pin à Pomerol, dès 1979, suivi, au tout début des années 1990, par Jean-Luc Thunevin, propriétaire du château de Valandraud (en), à Saint-Émilion. 
+Ces vins extrêmement tanniques furent fort bien notés par Robert M. Parker, Jr., ce qui assura leur succès. Les plus connus des garagistes, outre les deux pré-cités, sont La Mondotte, Péby-Faugère, Gracia, Rol-Valentin et Le Dôme (en).
 </t>
         </is>
       </c>
